--- a/results/skates/M_species_tables_skates.xlsx
+++ b/results/skates/M_species_tables_skates.xlsx
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,32 +597,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -639,27 +634,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -671,32 +661,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.139</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -708,30 +693,205 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.160</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>alaska skate</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.160</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>alaska skate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hamel_k.v1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.153</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Matta and Gunderson 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>alaska skate</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Matta and Gunderson 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>alaska skate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Matta and Gunderson 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>alaska skate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>frisk_k.v1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.087</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.156</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Matta and Gunderson 2007</t>
         </is>
@@ -744,7 +904,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,32 +1325,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.020</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1207,27 +1362,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.026</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1239,32 +1389,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hamel_k.v3</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.036</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1421,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.020</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1313,32 +1453,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.026</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1490,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jensen_k1.v3</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1365,12 +1500,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1392,7 +1527,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1402,12 +1537,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1429,7 +1564,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1439,12 +1574,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1466,7 +1601,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jensen_k2.v3</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1476,12 +1611,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.020</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1503,7 +1638,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>jensen_k1.v2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1513,12 +1648,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1540,7 +1675,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frisk_k.v2</t>
+          <t>jensen_k1.v3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1550,12 +1685,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1577,25 +1712,210 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jensen_k2.v2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jensen_k2.v3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>frisk_k.v1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>frisk_k.v2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>frisk_k.v3</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.036</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0.108</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Maurer 2009</t>
         </is>
@@ -1608,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1770,32 +2090,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.016</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1812,27 +2127,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.016</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1844,32 +2154,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.016</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -1881,30 +2186,205 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.219</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>hamel_k.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>frisk_k.v1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.016</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.077</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Ainsley 2011</t>
         </is>
@@ -1917,7 +2397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2227,32 +2707,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.228</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -2269,27 +2744,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hamel_k.v4</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -2301,32 +2771,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.195</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -2338,32 +2803,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jensen_k1.v4</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2835,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>jensen_k2.v4</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2427,17 +2882,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.228</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2909,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>hamel_k.v4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2464,17 +2919,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2946,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>frisk_k.v4</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2501,17 +2956,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.195</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2978,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>jensen_k1.v4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2543,12 +2998,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
@@ -2560,12 +3015,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2575,12 +3030,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>0.208</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2597,12 +3052,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>jensen_k2.v4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2617,12 +3072,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.176</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3089,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2649,12 +3104,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2671,12 +3126,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>frisk_k.v4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2691,12 +3146,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
@@ -2713,7 +3168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2723,12 +3178,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2750,7 +3205,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2760,12 +3215,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.263</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2787,25 +3242,210 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.165</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Haas 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>aleutian skate</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jensen_k1.v2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Haas 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>aleutian skate</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.176</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Haas 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aleutian skate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>jensen_k2.v2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Haas 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>aleutian skate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>frisk_k.v1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.173</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Haas 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>aleutian skate</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>frisk_k.v2</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.150</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>0.197</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Haas 2011</t>
         </is>
@@ -2818,7 +3458,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3091,32 +3731,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -3133,27 +3768,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -3165,32 +3795,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -3202,32 +3827,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -3239,32 +3859,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3896,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3291,17 +3906,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3933,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3328,17 +3943,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3970,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>frisk_k.v2</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3365,17 +3980,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
@@ -3387,12 +4002,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>jensen_k1.v2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3402,17 +4017,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
@@ -3424,12 +4039,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3439,17 +4054,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4076,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>jensen_k2.v2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3476,17 +4091,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
@@ -3498,12 +4113,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3513,17 +4128,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
@@ -3535,12 +4150,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>frisk_k.v2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3550,17 +4165,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
@@ -3577,7 +4192,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3587,17 +4202,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
@@ -3614,7 +4229,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3624,17 +4239,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
@@ -3651,25 +4266,210 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.092</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ainsley 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>bering skate</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>jensen_k1.v2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.090</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ainsley 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>bering skate</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.098</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ainsley 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>bering skate</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>jensen_k2.v2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ainsley 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>bering skate</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>frisk_k.v1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Ainsley 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>bering skate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>frisk_k.v2</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.060</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>0.134</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Ainsley 2014</t>
         </is>
@@ -3682,7 +4482,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3758,7 +4558,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -3770,12 +4570,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amax.v2</t>
+          <t>amax.v1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3785,17 +4585,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.415</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>AFSC max age</t>
         </is>
       </c>
     </row>
@@ -3812,7 +4612,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amax.v1</t>
+          <t>amax.v2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3822,17 +4622,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.415</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AFSC max age</t>
+          <t>AFSC mean top 5</t>
         </is>
       </c>
     </row>
@@ -3849,7 +4649,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>amax.v2</t>
+          <t>amax.v3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3859,17 +4659,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.444</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AFSC mean top 5</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -3881,12 +4681,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amax.v3</t>
+          <t>amax.v1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3896,17 +4696,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Zeiner and Wolf 1993</t>
         </is>
       </c>
     </row>
@@ -3918,32 +4718,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>amax.v1</t>
+          <t>then.v1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>151.1 / 0.060</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
@@ -3960,7 +4760,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>then.v2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3980,7 +4780,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -3997,7 +4797,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>then.v2</t>
+          <t>then.v3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4007,17 +4807,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>719.8 / 0.020</t>
+          <t>293.4 / 0.040</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
@@ -4029,12 +4829,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>then.v3</t>
+          <t>then.v1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4044,17 +4844,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>151.1 / 0.060</t>
+          <t>247.5 / 0.080</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -4071,22 +4871,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>then.v4</t>
+          <t>frisk_tmat.v1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>293.5 / 0.040</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4108,27 +4908,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>then.v5</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>293.4 / 0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -4140,32 +4935,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>247.5 / 0.080</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -4177,22 +4967,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>frisk_tmat.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4202,7 +4987,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -4214,32 +4999,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -4251,32 +5031,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.020</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -4293,7 +5068,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>hamel_k.v3</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4330,7 +5105,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hamel_k.v4</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4367,7 +5142,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hamel_k.v5</t>
+          <t>hamel_k.v3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4414,17 +5189,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
@@ -4451,17 +5226,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -4488,17 +5263,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>0.060</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.090</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
@@ -4515,7 +5290,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>jensen_k1.v4</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4525,17 +5300,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
@@ -4552,7 +5327,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>jensen_k1.v5</t>
+          <t>jensen_k2.v2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4567,12 +5342,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -4589,7 +5364,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>jensen_k2.v3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4609,7 +5384,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
@@ -4626,7 +5401,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4636,17 +5411,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
@@ -4663,7 +5438,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jensen_k2.v3</t>
+          <t>frisk_k.v2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4673,17 +5448,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -4700,7 +5475,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>jensen_k2.v4</t>
+          <t>frisk_k.v3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4715,12 +5490,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
@@ -4732,12 +5507,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>jensen_k2.v5</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4747,17 +5522,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -4769,12 +5544,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4784,12 +5559,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4806,12 +5581,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>frisk_k.v2</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4821,17 +5596,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -4843,12 +5618,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>frisk_k.v3</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4858,237 +5633,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>King 2010, Fabens</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BC</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>frisk_k.v4</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.113</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>McFarlane et al. 2006</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BC</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>frisk_k.v5</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.113</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>McFarlane et al. 2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>GOA</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>hamel_k.v1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.080</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.140</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Gburski 2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>GOA</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>jensen_k1.v1</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.080</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.119</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Gburski 2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>GOA</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>jensen_k2.v1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.080</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Gburski 2007</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>big skate</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GOA</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>frisk_k.v1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.080</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.151</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>Gburski 2007</t>
         </is>
@@ -5101,7 +5654,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5337,32 +5890,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.042</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.073</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -5379,27 +5927,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.042</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -5411,32 +5954,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.042</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -5448,30 +5986,205 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>commander skate</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>commander skate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>hamel_k.v1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Maurer 2009, gross</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>commander skate</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Maurer 2009, gross</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>commander skate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Maurer 2009, gross</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>commander skate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>frisk_k.v1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.042</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.115</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Maurer 2009, gross</t>
         </is>
@@ -5484,7 +6197,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5535,7 +6248,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5550,17 +6263,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>AFSC max age</t>
         </is>
       </c>
     </row>
@@ -5577,7 +6290,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>amax.v1</t>
+          <t>amax.v2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5587,17 +6300,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AFSC max age</t>
+          <t>AFSC mean top 5</t>
         </is>
       </c>
     </row>
@@ -5614,7 +6327,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>amax.v2</t>
+          <t>amax.v3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5624,17 +6337,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AFSC mean top 5</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5651,7 +6364,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>amax.v3</t>
+          <t>amax.v4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5661,17 +6374,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.225</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -5683,12 +6396,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>amax.v4</t>
+          <t>amax.v1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5698,17 +6411,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.270</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5720,7 +6433,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5735,17 +6448,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Gertseva 2019</t>
         </is>
       </c>
     </row>
@@ -5762,7 +6475,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>amax.v1</t>
+          <t>amax.v2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5772,17 +6485,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.284</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gertseva 2019</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5799,27 +6512,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>amax.v2</t>
+          <t>gsi.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>GSI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.284</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thompson 2005</t>
         </is>
       </c>
     </row>
@@ -5831,32 +6544,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>amax.v3</t>
+          <t>then.v1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>251.0 / 0.040</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5868,32 +6581,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>amax.v4</t>
+          <t>then.v2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>234.1 / 0.037</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Thompson 2005, north CA</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -5905,32 +6618,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>amax.v5</t>
+          <t>then.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>221.0 / 0.040</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Thompson 2005, south CA</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5947,27 +6660,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>amax.v6</t>
+          <t>then.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>210.0 / 0.040</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -5979,32 +6692,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gsi.v1</t>
+          <t>frisk_tmat.v1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GSI</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6016,32 +6729,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>frisk_tmat.v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>137.2 / 0.060</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6053,27 +6766,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>frisk_tmat.v1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>251.0 / 0.040</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -6090,32 +6803,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>then.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>234.1 / 0.037</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -6127,32 +6835,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>221.0 / 0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -6164,32 +6867,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>then.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>210.0 / 0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -6201,32 +6899,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>then.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>180.9 / 0.051</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -6243,27 +6936,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>then.v3</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>104.7 / 0.160</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -6280,22 +6968,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frisk_tmat.v1</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
+          <t>VBGF k (cm-1)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -6312,32 +7000,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frisk_tmat.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
+          <t>VBGF k (cm-1)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -6349,27 +7037,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>frisk_tmat.v1</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
+          <t>VBGF k (cm-1)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -6386,12 +7074,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>jensen_k1.v2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6401,12 +7089,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.055</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -6423,12 +7111,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6438,17 +7126,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6460,12 +7148,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>jensen_k2.v2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6475,12 +7163,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -6497,7 +7185,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6512,17 +7200,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6539,7 +7227,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>frisk_k.v2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6549,17 +7237,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -6571,12 +7259,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6586,17 +7274,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6608,7 +7296,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6645,12 +7333,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6660,17 +7348,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6682,12 +7370,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6702,7 +7390,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6719,12 +7407,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6734,17 +7422,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6756,12 +7444,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6776,7 +7464,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6793,12 +7481,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>frisk_k.v2</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6808,17 +7496,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -6830,12 +7518,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6850,567 +7538,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>GOA, BC</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>jensen_k1.v1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.060</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>GOA, BC</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>jensen_k2.v1</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.064</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>GOA, BC</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>frisk_k.v1</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.113</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>hamel_k.v1</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.070</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>hamel_k.v2</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.090</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Thompson 2005</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>hamel_k.v3</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.160</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Zeiner and Wolf 1993</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>jensen_k1.v1</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.060</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>jensen_k1.v2</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.077</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Thompson 2005</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>jensen_k1.v3</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0.160</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.240</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Zeiner and Wolf 1993</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>jensen_k2.v1</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.064</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>jensen_k2.v2</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.082</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Thompson 2005</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>jensen_k2.v3</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.160</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.256</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Zeiner and Wolf 1993</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>frisk_k.v1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.113</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Arrington 2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>frisk_k.v2</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.125</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Thompson 2005</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>longnose skate</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>frisk_k.v3</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0.160</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.202</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Zeiner and Wolf 1993</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7554,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7657,32 +7790,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.111</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -7699,27 +7827,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.132</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -7731,32 +7854,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.111</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -7768,32 +7886,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.132</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -7805,32 +7918,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.111</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.177</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7955,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7857,12 +7965,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.212</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7884,7 +7992,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7894,12 +8002,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.232</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7921,25 +8029,210 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.166</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ebert et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mud skate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>jensen_k1.v2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ebert et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mud skate</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.177</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ebert et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mud skate</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>jensen_k2.v2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.212</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ebert et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mud skate</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>frisk_k.v1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.173</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ebert et al. 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mud skate</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>frisk_k.v2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.132</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>0.187</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Ebert et al. 2009</t>
         </is>
@@ -7952,7 +8245,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8373,32 +8666,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.064</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -8415,27 +8703,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hamel_k.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.031</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -8447,32 +8730,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hamel_k.v3</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.038</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -8484,32 +8762,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.064</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -8521,32 +8794,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>jensen_k1.v2</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.031</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -8563,7 +8831,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>jensen_k1.v3</t>
+          <t>hamel_k.v1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -8573,17 +8841,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8868,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>hamel_k.v2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -8610,17 +8878,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8905,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jensen_k2.v2</t>
+          <t>hamel_k.v3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -8647,17 +8915,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
@@ -8674,7 +8942,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>jensen_k2.v3</t>
+          <t>jensen_k1.v1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -8684,17 +8952,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8979,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>frisk_k.v1</t>
+          <t>jensen_k1.v2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8721,17 +8989,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
@@ -8748,7 +9016,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>frisk_k.v2</t>
+          <t>jensen_k1.v3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -8758,17 +9026,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
@@ -8785,7 +9053,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>frisk_k.v3</t>
+          <t>jensen_k2.v1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -8795,17 +9063,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
@@ -8817,12 +9085,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>jensen_k2.v2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -8832,17 +9100,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
@@ -8854,12 +9122,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>jensen_k2.v3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -8869,17 +9137,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
@@ -8891,12 +9159,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>frisk_k.v1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -8906,17 +9174,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.137</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
@@ -8928,30 +9196,215 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>frisk_k.v2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.031</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.101</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Winton 2011 histology</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>frisk_k.v3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Winton 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>hamel_k.v1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.090</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>frisk_k.v1</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.060</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>0.134</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Davis 2006</t>
         </is>
@@ -8964,7 +9417,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9089,32 +9542,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hamel_k.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.210</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.368</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -9126,32 +9574,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jensen_k1.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.210</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -9163,32 +9606,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>jensen_k2.v1</t>
+          <t>fishlife.v1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.210</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.336</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
@@ -9200,30 +9638,205 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fishlife.v1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.136</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>hamel_k.v1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.368</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jensen_k1.v1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jensen_k2.v1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.336</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>frisk_k.v1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>0.210</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.226</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Perez 2010</t>
         </is>
